--- a/harpo.xlsx
+++ b/harpo.xlsx
@@ -141,7 +141,7 @@
       <selection pane="topLeft" activeCell="A182" activeCellId="0" sqref="A182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
